--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -187,25 +187,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.763684034347534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.600780010223389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.474654912948608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.306007862091064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.399806976318359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.356994867324829</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.50231409072876</c:v>
+                  <c:v>1.40495276451111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39208793640137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.31997799873352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11085915565491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.09772753715515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1025595664978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.09451603889465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,25 +267,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.416378974914551</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.896342754364014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.794614791870117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.722610473632812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.819762229919434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.035614728927612</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.80504846572876</c:v>
+                  <c:v>2.39537310600281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.32074642181396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.41830229759216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.31953001022339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.30874371528625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.67089200019836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7113208770752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,25 +347,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.449088096618652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5102698802948</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.204162836074829</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.747051239013672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.976504802703857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.925325393676758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.187781095504761</c:v>
+                  <c:v>5.15211892127991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.28372979164124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0961549282074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.82822561264038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.86448097229004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.71798753738403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.81549644470215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,25 +427,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.396377325057983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.053133487701416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.766814470291138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.991265773773193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.192334890365601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.81252384185791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.876084089279175</c:v>
+                  <c:v>5.90389204025269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7939338684082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.76315140724182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.67730617523193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7680675983429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.85265302658081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.11822295188904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,25 +597,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00289463996887207</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01456570625305176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02993965148925781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1464791297912598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2962067127227783</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.527155160903931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.074769020080566</c:v>
+                  <c:v>0.00248575210571289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0136172771453857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.027963399887085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108123302459717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.275290727615356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10780143737793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.77675986289978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,25 +677,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.004940509796142578</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05295157432556152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05602407455444336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.268080472946167</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6261882781982422</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.018226623535156</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.25747394561768</c:v>
+                  <c:v>0.00466132164001465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0227432250976562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0464904308319092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.234450578689575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.490718364715576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.34802865982056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19256830215454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,25 +757,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01082110404968262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04315400123596191</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1261663436889648</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6519472599029541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.335427045822144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.844821691513062</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.03864407539368</c:v>
+                  <c:v>0.00744199752807617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0377678871154785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0790157318115234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.402223825454712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.862495899200439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.62839984893799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.29855036735535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,25 +837,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0153501033782959</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.07390618324279785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1475269794464111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7368407249450684</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.615283250808716</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.857982397079468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.45696425437927</c:v>
+                  <c:v>0.0121262073516846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0577418804168701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115171432495117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.592012643814087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44933891296387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.33299875259399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.6909463405609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,25 +1007,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.38165020942688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.121093511581421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.281308889389038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.069216966629028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.018732070922852</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.011895895004272</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.030047178268433</c:v>
+                  <c:v>6.29828810691833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.29652214050293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.31451201438904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.69548559188843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.00712108612061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.67243218421936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.85503172874451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,25 +1087,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.893391847610474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.815550804138184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.054582118988037</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.777657985687256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.667392730712891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.662466764450073</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.709532976150513</c:v>
+                  <c:v>8.47388458251953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5657303333282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0130994319916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.24072408676147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.16746377944946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.23631620407104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8754289150238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,25 +1167,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.402542591094971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.460941314697266</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.321824312210083</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.848907232284546</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.720069169998169</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.72960352897644</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.819240570068359</c:v>
+                  <c:v>11.8154325485229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.7571771144867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7669229507446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0435862541199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4362225532532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.1091837882996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.2135927677155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,25 +1247,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.81789827346802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7359459400177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.363786697387695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.410752296447754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.154291868209839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.295503616333008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.383714437484741</c:v>
+                  <c:v>32.4209713935852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.6160006523132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.988468170166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.9438843727112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.1048283576965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.1903390884399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.8727295398712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,25 +1417,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.005869865417480469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0215909481048584</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03920173645019531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2008786201477051</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4171559810638428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.097809791564941</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.283269643783569</c:v>
+                  <c:v>0.0225615501403809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0736472606658936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143352746963501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68796968460083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.40961360931396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.05623459815979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.3811430931091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,25 +1497,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.006070137023925781</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03047037124633789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05956578254699707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2809948921203613</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5672750473022461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.829385995864868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.578525543212891</c:v>
+                  <c:v>0.0177521705627441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0979137420654297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19164252281189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00062036514282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.94968676567078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.69843006134033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.3835141658783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,25 +1577,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01349735260009766</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03906035423278809</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08003020286560059</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3841662406921387</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.008531332015991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.935971021652222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.979386329650879</c:v>
+                  <c:v>0.0298805236816406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126417636871338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.246809244155884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23720002174377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.58018016815186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.3060128688812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.2245607376099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,25 +1657,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02099871635437012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1123790740966797</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1875410079956055</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9508054256439209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.858982801437378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.244306564331055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.65836071968079</c:v>
+                  <c:v>0.0795044898986816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.365292310714722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.720554113388062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.61768221855164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.93372178077698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.0379252433777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.4090604782104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.763684034347534</v>
+        <v>1.40495276451111</v>
       </c>
       <c r="C2">
-        <v>5.416378974914551</v>
+        <v>2.39537310600281</v>
       </c>
       <c r="D2">
-        <v>5.449088096618652</v>
+        <v>5.15211892127991</v>
       </c>
       <c r="E2">
-        <v>7.396377325057983</v>
+        <v>5.90389204025269</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2229,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.600780010223389</v>
+        <v>1.39208793640137</v>
       </c>
       <c r="C3">
-        <v>4.896342754364014</v>
+        <v>2.32074642181396</v>
       </c>
       <c r="D3">
-        <v>4.5102698802948</v>
+        <v>4.28372979164124</v>
       </c>
       <c r="E3">
-        <v>7.053133487701416</v>
+        <v>5.7939338684082</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2246,16 +2246,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.474654912948608</v>
+        <v>1.31997799873352</v>
       </c>
       <c r="C4">
-        <v>4.794614791870117</v>
+        <v>2.41830229759216</v>
       </c>
       <c r="D4">
-        <v>4.204162836074829</v>
+        <v>4.0961549282074</v>
       </c>
       <c r="E4">
-        <v>6.766814470291138</v>
+        <v>5.76315140724182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2263,16 +2263,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.306007862091064</v>
+        <v>1.11085915565491</v>
       </c>
       <c r="C5">
-        <v>3.722610473632812</v>
+        <v>2.31953001022339</v>
       </c>
       <c r="D5">
-        <v>4.747051239013672</v>
+        <v>3.82822561264038</v>
       </c>
       <c r="E5">
-        <v>6.991265773773193</v>
+        <v>5.67730617523193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2280,16 +2280,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.399806976318359</v>
+        <v>1.09772753715515</v>
       </c>
       <c r="C6">
-        <v>3.819762229919434</v>
+        <v>2.30874371528625</v>
       </c>
       <c r="D6">
-        <v>4.976504802703857</v>
+        <v>3.86448097229004</v>
       </c>
       <c r="E6">
-        <v>7.192334890365601</v>
+        <v>5.7680675983429</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2297,16 +2297,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.356994867324829</v>
+        <v>1.1025595664978</v>
       </c>
       <c r="C7">
-        <v>4.035614728927612</v>
+        <v>2.67089200019836</v>
       </c>
       <c r="D7">
-        <v>4.925325393676758</v>
+        <v>3.71798753738403</v>
       </c>
       <c r="E7">
-        <v>7.81252384185791</v>
+        <v>5.85265302658081</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2314,16 +2314,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.50231409072876</v>
+        <v>1.09451603889465</v>
       </c>
       <c r="C8">
-        <v>4.80504846572876</v>
+        <v>2.7113208770752</v>
       </c>
       <c r="D8">
-        <v>5.187781095504761</v>
+        <v>3.81549644470215</v>
       </c>
       <c r="E8">
-        <v>7.876084089279175</v>
+        <v>7.11822295188904</v>
       </c>
     </row>
   </sheetData>
@@ -2359,16 +2359,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00289463996887207</v>
+        <v>0.00248575210571289</v>
       </c>
       <c r="C2">
-        <v>0.004940509796142578</v>
+        <v>0.00466132164001465</v>
       </c>
       <c r="D2">
-        <v>0.01082110404968262</v>
+        <v>0.00744199752807617</v>
       </c>
       <c r="E2">
-        <v>0.0153501033782959</v>
+        <v>0.0121262073516846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01456570625305176</v>
+        <v>0.0136172771453857</v>
       </c>
       <c r="C3">
-        <v>0.05295157432556152</v>
+        <v>0.0227432250976562</v>
       </c>
       <c r="D3">
-        <v>0.04315400123596191</v>
+        <v>0.0377678871154785</v>
       </c>
       <c r="E3">
-        <v>0.07390618324279785</v>
+        <v>0.0577418804168701</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02993965148925781</v>
+        <v>0.027963399887085</v>
       </c>
       <c r="C4">
-        <v>0.05602407455444336</v>
+        <v>0.0464904308319092</v>
       </c>
       <c r="D4">
-        <v>0.1261663436889648</v>
+        <v>0.0790157318115234</v>
       </c>
       <c r="E4">
-        <v>0.1475269794464111</v>
+        <v>0.115171432495117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1464791297912598</v>
+        <v>0.108123302459717</v>
       </c>
       <c r="C5">
-        <v>0.268080472946167</v>
+        <v>0.234450578689575</v>
       </c>
       <c r="D5">
-        <v>0.6519472599029541</v>
+        <v>0.402223825454712</v>
       </c>
       <c r="E5">
-        <v>0.7368407249450684</v>
+        <v>0.592012643814087</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2962067127227783</v>
+        <v>0.275290727615356</v>
       </c>
       <c r="C6">
-        <v>0.6261882781982422</v>
+        <v>0.490718364715576</v>
       </c>
       <c r="D6">
-        <v>1.335427045822144</v>
+        <v>0.862495899200439</v>
       </c>
       <c r="E6">
-        <v>1.615283250808716</v>
+        <v>1.44933891296387</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.527155160903931</v>
+        <v>1.10780143737793</v>
       </c>
       <c r="C7">
-        <v>4.018226623535156</v>
+        <v>2.34802865982056</v>
       </c>
       <c r="D7">
-        <v>5.844821691513062</v>
+        <v>4.62839984893799</v>
       </c>
       <c r="E7">
-        <v>7.857982397079468</v>
+        <v>7.33299875259399</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3.074769020080566</v>
+        <v>2.77675986289978</v>
       </c>
       <c r="C8">
-        <v>10.25747394561768</v>
+        <v>6.19256830215454</v>
       </c>
       <c r="D8">
-        <v>10.03864407539368</v>
+        <v>7.29855036735535</v>
       </c>
       <c r="E8">
-        <v>15.45696425437927</v>
+        <v>42.6909463405609</v>
       </c>
     </row>
   </sheetData>
@@ -2506,16 +2506,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.38165020942688</v>
+        <v>6.29828810691833</v>
       </c>
       <c r="C2">
-        <v>2.893391847610474</v>
+        <v>8.47388458251953</v>
       </c>
       <c r="D2">
-        <v>5.402542591094971</v>
+        <v>11.8154325485229</v>
       </c>
       <c r="E2">
-        <v>10.81789827346802</v>
+        <v>32.4209713935852</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.121093511581421</v>
+        <v>9.29652214050293</v>
       </c>
       <c r="C3">
-        <v>2.815550804138184</v>
+        <v>12.5657303333282</v>
       </c>
       <c r="D3">
-        <v>4.460941314697266</v>
+        <v>16.7571771144867</v>
       </c>
       <c r="E3">
-        <v>9.7359459400177</v>
+        <v>40.6160006523132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.281308889389038</v>
+        <v>7.31451201438904</v>
       </c>
       <c r="C4">
-        <v>3.054582118988037</v>
+        <v>15.0130994319916</v>
       </c>
       <c r="D4">
-        <v>4.321824312210083</v>
+        <v>18.7669229507446</v>
       </c>
       <c r="E4">
-        <v>9.363786697387695</v>
+        <v>37.988468170166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2.069216966629028</v>
+        <v>5.69548559188843</v>
       </c>
       <c r="C5">
-        <v>2.777657985687256</v>
+        <v>8.24072408676147</v>
       </c>
       <c r="D5">
-        <v>3.848907232284546</v>
+        <v>11.0435862541199</v>
       </c>
       <c r="E5">
-        <v>9.410752296447754</v>
+        <v>28.9438843727112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.018732070922852</v>
+        <v>6.00712108612061</v>
       </c>
       <c r="C6">
-        <v>2.667392730712891</v>
+        <v>8.16746377944946</v>
       </c>
       <c r="D6">
-        <v>3.720069169998169</v>
+        <v>10.4362225532532</v>
       </c>
       <c r="E6">
-        <v>9.154291868209839</v>
+        <v>27.1048283576965</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.011895895004272</v>
+        <v>5.67243218421936</v>
       </c>
       <c r="C7">
-        <v>2.662466764450073</v>
+        <v>8.23631620407104</v>
       </c>
       <c r="D7">
-        <v>3.72960352897644</v>
+        <v>11.1091837882996</v>
       </c>
       <c r="E7">
-        <v>9.295503616333008</v>
+        <v>32.1903390884399</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.030047178268433</v>
+        <v>5.85503172874451</v>
       </c>
       <c r="C8">
-        <v>2.709532976150513</v>
+        <v>10.8754289150238</v>
       </c>
       <c r="D8">
-        <v>3.819240570068359</v>
+        <v>14.2135927677155</v>
       </c>
       <c r="E8">
-        <v>9.383714437484741</v>
+        <v>34.8727295398712</v>
       </c>
     </row>
   </sheetData>
@@ -2653,16 +2653,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.005869865417480469</v>
+        <v>0.0225615501403809</v>
       </c>
       <c r="C2">
-        <v>0.006070137023925781</v>
+        <v>0.0177521705627441</v>
       </c>
       <c r="D2">
-        <v>0.01349735260009766</v>
+        <v>0.0298805236816406</v>
       </c>
       <c r="E2">
-        <v>0.02099871635437012</v>
+        <v>0.0795044898986816</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2670,16 +2670,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0215909481048584</v>
+        <v>0.0736472606658936</v>
       </c>
       <c r="C3">
-        <v>0.03047037124633789</v>
+        <v>0.0979137420654297</v>
       </c>
       <c r="D3">
-        <v>0.03906035423278809</v>
+        <v>0.126417636871338</v>
       </c>
       <c r="E3">
-        <v>0.1123790740966797</v>
+        <v>0.365292310714722</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2687,16 +2687,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03920173645019531</v>
+        <v>0.143352746963501</v>
       </c>
       <c r="C4">
-        <v>0.05956578254699707</v>
+        <v>0.19164252281189</v>
       </c>
       <c r="D4">
-        <v>0.08003020286560059</v>
+        <v>0.246809244155884</v>
       </c>
       <c r="E4">
-        <v>0.1875410079956055</v>
+        <v>0.720554113388062</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2704,16 +2704,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2008786201477051</v>
+        <v>0.68796968460083</v>
       </c>
       <c r="C5">
-        <v>0.2809948921203613</v>
+        <v>1.00062036514282</v>
       </c>
       <c r="D5">
-        <v>0.3841662406921387</v>
+        <v>1.23720002174377</v>
       </c>
       <c r="E5">
-        <v>0.9508054256439209</v>
+        <v>3.61768221855164</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2721,16 +2721,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4171559810638428</v>
+        <v>1.40961360931396</v>
       </c>
       <c r="C6">
-        <v>0.5672750473022461</v>
+        <v>1.94968676567078</v>
       </c>
       <c r="D6">
-        <v>1.008531332015991</v>
+        <v>2.58018016815186</v>
       </c>
       <c r="E6">
-        <v>1.858982801437378</v>
+        <v>7.93372178077698</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2738,16 +2738,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.097809791564941</v>
+        <v>7.05623459815979</v>
       </c>
       <c r="C7">
-        <v>2.829385995864868</v>
+        <v>9.69843006134033</v>
       </c>
       <c r="D7">
-        <v>3.935971021652222</v>
+        <v>11.3060128688812</v>
       </c>
       <c r="E7">
-        <v>9.244306564331055</v>
+        <v>28.0379252433777</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2755,16 +2755,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.283269643783569</v>
+        <v>12.3811430931091</v>
       </c>
       <c r="C8">
-        <v>5.578525543212891</v>
+        <v>18.3835141658783</v>
       </c>
       <c r="D8">
-        <v>7.979386329650879</v>
+        <v>24.2245607376099</v>
       </c>
       <c r="E8">
-        <v>18.65836071968079</v>
+        <v>63.4090604782104</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>credis_bench</t>
   </si>
@@ -38,18 +38,6 @@
   </si>
   <si>
     <t>1000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -165,18 +153,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -187,25 +163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.40495276451111</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.39208793640137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.31997799873352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.11085915565491</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.09772753715515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1025595664978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.09451603889465</c:v>
+                  <c:v>2.002869606018066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.658698320388794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.479051351547241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,18 +209,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -267,25 +219,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.39537310600281</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.32074642181396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.41830229759216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.31953001022339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.30874371528625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.67089200019836</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7113208770752</c:v>
+                  <c:v>3.33395791053772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.521268367767334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.515085458755493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,18 +265,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -347,25 +275,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.15211892127991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.28372979164124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0961549282074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.82822561264038</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.86448097229004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.71798753738403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.81549644470215</c:v>
+                  <c:v>4.173003673553467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.717034816741943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.53716778755188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,18 +321,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -427,25 +331,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.90389204025269</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7939338684082</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.76315140724182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.67730617523193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7680675983429</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.85265302658081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.11822295188904</c:v>
+                  <c:v>7.574829816818237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.215502738952637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.222671747207642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,18 +467,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -597,25 +477,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00248575210571289</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0136172771453857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.027963399887085</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.108123302459717</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.275290727615356</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.10780143737793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.77675986289978</c:v>
+                  <c:v>0.003570795059204102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01811099052429199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03898906707763672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,18 +523,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -677,25 +533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00466132164001465</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0227432250976562</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0464904308319092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.234450578689575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.490718364715576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.34802865982056</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19256830215454</c:v>
+                  <c:v>0.005369663238525391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02714896202087402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05526518821716309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,18 +579,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -757,25 +589,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00744199752807617</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0377678871154785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0790157318115234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.402223825454712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.862495899200439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.62839984893799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.29855036735535</c:v>
+                  <c:v>0.01061892509460449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04393935203552246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08069086074829102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,18 +635,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -837,25 +645,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0121262073516846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0577418804168701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.115171432495117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.592012643814087</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.44933891296387</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.33299875259399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42.6909463405609</c:v>
+                  <c:v>0.01627802848815918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07621192932128906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1458353996276855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,18 +781,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1007,25 +791,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.29828810691833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.29652214050293</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.31451201438904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.69548559188843</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.00712108612061</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.67243218421936</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.85503172874451</c:v>
+                  <c:v>2.376485824584961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.024414539337158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.105715036392212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,18 +837,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1087,25 +847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.47388458251953</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5657303333282</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0130994319916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.24072408676147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.16746377944946</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.23631620407104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8754289150238</c:v>
+                  <c:v>4.078831434249878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.669357776641846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.687736034393311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,18 +893,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1167,25 +903,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.8154325485229</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.7571771144867</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.7669229507446</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.0435862541199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.4362225532532</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.1091837882996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.2135927677155</c:v>
+                  <c:v>4.361236095428467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.782018184661865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8964524269104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,18 +949,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1247,25 +959,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32.4209713935852</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.6160006523132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.988468170166</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.9438843727112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.1048283576965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.1903390884399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.8727295398712</c:v>
+                  <c:v>9.947299480438232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.294318437576294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.053436756134033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,18 +1095,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1417,25 +1105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0225615501403809</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0736472606658936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.143352746963501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68796968460083</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.40961360931396</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.05623459815979</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.3811430931091</c:v>
+                  <c:v>0.006075143814086914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02311062812805176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04503226280212402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,18 +1151,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1497,25 +1161,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0177521705627441</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0979137420654297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19164252281189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.00062036514282</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.94968676567078</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.69843006134033</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.3835141658783</c:v>
+                  <c:v>0.00580906867980957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03571963310241699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07622957229614258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,18 +1207,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1577,25 +1217,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0298805236816406</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.126417636871338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.246809244155884</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.23720002174377</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.58018016815186</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.3060128688812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.2245607376099</c:v>
+                  <c:v>0.01027584075927734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04131984710693359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08859515190124512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,18 +1263,6 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1657,25 +1273,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0795044898986816</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.365292310714722</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.720554113388062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.61768221855164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.93372178077698</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.0379252433777</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.4090604782104</c:v>
+                  <c:v>0.02141690254211426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1000747680664062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2089800834655762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2212,16 +1816,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.40495276451111</v>
+        <v>2.002869606018066</v>
       </c>
       <c r="C2">
-        <v>2.39537310600281</v>
+        <v>3.33395791053772</v>
       </c>
       <c r="D2">
-        <v>5.15211892127991</v>
+        <v>4.173003673553467</v>
       </c>
       <c r="E2">
-        <v>5.90389204025269</v>
+        <v>7.574829816818237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2229,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.39208793640137</v>
+        <v>1.658698320388794</v>
       </c>
       <c r="C3">
-        <v>2.32074642181396</v>
+        <v>2.521268367767334</v>
       </c>
       <c r="D3">
-        <v>4.28372979164124</v>
+        <v>3.717034816741943</v>
       </c>
       <c r="E3">
-        <v>5.7939338684082</v>
+        <v>7.215502738952637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2246,84 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.31997799873352</v>
+        <v>1.479051351547241</v>
       </c>
       <c r="C4">
-        <v>2.41830229759216</v>
+        <v>2.515085458755493</v>
       </c>
       <c r="D4">
-        <v>4.0961549282074</v>
+        <v>3.53716778755188</v>
       </c>
       <c r="E4">
-        <v>5.76315140724182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1.11085915565491</v>
-      </c>
-      <c r="C5">
-        <v>2.31953001022339</v>
-      </c>
-      <c r="D5">
-        <v>3.82822561264038</v>
-      </c>
-      <c r="E5">
-        <v>5.67730617523193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.09772753715515</v>
-      </c>
-      <c r="C6">
-        <v>2.30874371528625</v>
-      </c>
-      <c r="D6">
-        <v>3.86448097229004</v>
-      </c>
-      <c r="E6">
-        <v>5.7680675983429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1.1025595664978</v>
-      </c>
-      <c r="C7">
-        <v>2.67089200019836</v>
-      </c>
-      <c r="D7">
-        <v>3.71798753738403</v>
-      </c>
-      <c r="E7">
-        <v>5.85265302658081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1.09451603889465</v>
-      </c>
-      <c r="C8">
-        <v>2.7113208770752</v>
-      </c>
-      <c r="D8">
-        <v>3.81549644470215</v>
-      </c>
-      <c r="E8">
-        <v>7.11822295188904</v>
+        <v>7.222671747207642</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2359,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00248575210571289</v>
+        <v>0.003570795059204102</v>
       </c>
       <c r="C2">
-        <v>0.00466132164001465</v>
+        <v>0.005369663238525391</v>
       </c>
       <c r="D2">
-        <v>0.00744199752807617</v>
+        <v>0.01061892509460449</v>
       </c>
       <c r="E2">
-        <v>0.0121262073516846</v>
+        <v>0.01627802848815918</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2376,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0136172771453857</v>
+        <v>0.01811099052429199</v>
       </c>
       <c r="C3">
-        <v>0.0227432250976562</v>
+        <v>0.02714896202087402</v>
       </c>
       <c r="D3">
-        <v>0.0377678871154785</v>
+        <v>0.04393935203552246</v>
       </c>
       <c r="E3">
-        <v>0.0577418804168701</v>
+        <v>0.07621192932128906</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2393,84 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.027963399887085</v>
+        <v>0.03898906707763672</v>
       </c>
       <c r="C4">
-        <v>0.0464904308319092</v>
+        <v>0.05526518821716309</v>
       </c>
       <c r="D4">
-        <v>0.0790157318115234</v>
+        <v>0.08069086074829102</v>
       </c>
       <c r="E4">
-        <v>0.115171432495117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.108123302459717</v>
-      </c>
-      <c r="C5">
-        <v>0.234450578689575</v>
-      </c>
-      <c r="D5">
-        <v>0.402223825454712</v>
-      </c>
-      <c r="E5">
-        <v>0.592012643814087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.275290727615356</v>
-      </c>
-      <c r="C6">
-        <v>0.490718364715576</v>
-      </c>
-      <c r="D6">
-        <v>0.862495899200439</v>
-      </c>
-      <c r="E6">
-        <v>1.44933891296387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1.10780143737793</v>
-      </c>
-      <c r="C7">
-        <v>2.34802865982056</v>
-      </c>
-      <c r="D7">
-        <v>4.62839984893799</v>
-      </c>
-      <c r="E7">
-        <v>7.33299875259399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2.77675986289978</v>
-      </c>
-      <c r="C8">
-        <v>6.19256830215454</v>
-      </c>
-      <c r="D8">
-        <v>7.29855036735535</v>
-      </c>
-      <c r="E8">
-        <v>42.6909463405609</v>
+        <v>0.1458353996276855</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.29828810691833</v>
+        <v>2.376485824584961</v>
       </c>
       <c r="C2">
-        <v>8.47388458251953</v>
+        <v>4.078831434249878</v>
       </c>
       <c r="D2">
-        <v>11.8154325485229</v>
+        <v>4.361236095428467</v>
       </c>
       <c r="E2">
-        <v>32.4209713935852</v>
+        <v>9.947299480438232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2523,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>9.29652214050293</v>
+        <v>2.024414539337158</v>
       </c>
       <c r="C3">
-        <v>12.5657303333282</v>
+        <v>2.669357776641846</v>
       </c>
       <c r="D3">
-        <v>16.7571771144867</v>
+        <v>3.782018184661865</v>
       </c>
       <c r="E3">
-        <v>40.6160006523132</v>
+        <v>9.294318437576294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2540,84 +2008,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.31451201438904</v>
+        <v>2.105715036392212</v>
       </c>
       <c r="C4">
-        <v>15.0130994319916</v>
+        <v>2.687736034393311</v>
       </c>
       <c r="D4">
-        <v>18.7669229507446</v>
+        <v>3.8964524269104</v>
       </c>
       <c r="E4">
-        <v>37.988468170166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5.69548559188843</v>
-      </c>
-      <c r="C5">
-        <v>8.24072408676147</v>
-      </c>
-      <c r="D5">
-        <v>11.0435862541199</v>
-      </c>
-      <c r="E5">
-        <v>28.9438843727112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>6.00712108612061</v>
-      </c>
-      <c r="C6">
-        <v>8.16746377944946</v>
-      </c>
-      <c r="D6">
-        <v>10.4362225532532</v>
-      </c>
-      <c r="E6">
-        <v>27.1048283576965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5.67243218421936</v>
-      </c>
-      <c r="C7">
-        <v>8.23631620407104</v>
-      </c>
-      <c r="D7">
-        <v>11.1091837882996</v>
-      </c>
-      <c r="E7">
-        <v>32.1903390884399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5.85503172874451</v>
-      </c>
-      <c r="C8">
-        <v>10.8754289150238</v>
-      </c>
-      <c r="D8">
-        <v>14.2135927677155</v>
-      </c>
-      <c r="E8">
-        <v>34.8727295398712</v>
+        <v>9.053436756134033</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2653,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0225615501403809</v>
+        <v>0.006075143814086914</v>
       </c>
       <c r="C2">
-        <v>0.0177521705627441</v>
+        <v>0.00580906867980957</v>
       </c>
       <c r="D2">
-        <v>0.0298805236816406</v>
+        <v>0.01027584075927734</v>
       </c>
       <c r="E2">
-        <v>0.0795044898986816</v>
+        <v>0.02141690254211426</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2670,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0736472606658936</v>
+        <v>0.02311062812805176</v>
       </c>
       <c r="C3">
-        <v>0.0979137420654297</v>
+        <v>0.03571963310241699</v>
       </c>
       <c r="D3">
-        <v>0.126417636871338</v>
+        <v>0.04131984710693359</v>
       </c>
       <c r="E3">
-        <v>0.365292310714722</v>
+        <v>0.1000747680664062</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2687,84 +2087,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.143352746963501</v>
+        <v>0.04503226280212402</v>
       </c>
       <c r="C4">
-        <v>0.19164252281189</v>
+        <v>0.07622957229614258</v>
       </c>
       <c r="D4">
-        <v>0.246809244155884</v>
+        <v>0.08859515190124512</v>
       </c>
       <c r="E4">
-        <v>0.720554113388062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.68796968460083</v>
-      </c>
-      <c r="C5">
-        <v>1.00062036514282</v>
-      </c>
-      <c r="D5">
-        <v>1.23720002174377</v>
-      </c>
-      <c r="E5">
-        <v>3.61768221855164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.40961360931396</v>
-      </c>
-      <c r="C6">
-        <v>1.94968676567078</v>
-      </c>
-      <c r="D6">
-        <v>2.58018016815186</v>
-      </c>
-      <c r="E6">
-        <v>7.93372178077698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>7.05623459815979</v>
-      </c>
-      <c r="C7">
-        <v>9.69843006134033</v>
-      </c>
-      <c r="D7">
-        <v>11.3060128688812</v>
-      </c>
-      <c r="E7">
-        <v>28.0379252433777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>12.3811430931091</v>
-      </c>
-      <c r="C8">
-        <v>18.3835141658783</v>
-      </c>
-      <c r="D8">
-        <v>24.2245607376099</v>
-      </c>
-      <c r="E8">
-        <v>63.4090604782104</v>
+        <v>0.2089800834655762</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -163,13 +163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.002869606018066</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.658698320388794</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.479051351547241</c:v>
+                  <c:v>5.5318922996521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.14345622062683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.75947666168213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,13 +219,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.33395791053772</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.521268367767334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.515085458755493</c:v>
+                  <c:v>8.99859046936035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.75268220901489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5424599647522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,13 +275,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.173003673553467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.717034816741943</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.53716778755188</c:v>
+                  <c:v>13.0929651260376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.7953827381134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3039703369141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,13 +331,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.574829816818237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.215502738952637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.222671747207642</c:v>
+                  <c:v>26.4378969669342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.1964299678802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.9001808166504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,13 +477,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.003570795059204102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01811099052429199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03898906707763672</c:v>
+                  <c:v>0.0114443302154541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0516672134399414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10820746421814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,13 +533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.005369663238525391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02714896202087402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05526518821716309</c:v>
+                  <c:v>0.0181083679199219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0896377563476562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.184207201004028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,13 +589,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01061892509460449</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04393935203552246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08069086074829102</c:v>
+                  <c:v>0.0315818786621094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.134850978851318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.264951705932617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,13 +645,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01627802848815918</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.07621192932128906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1458353996276855</c:v>
+                  <c:v>0.0515525341033936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.262027263641357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.523222923278809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,13 +791,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.376485824584961</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.024414539337158</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.105715036392212</c:v>
+                  <c:v>6.98036003112793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.51122999191284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.26917695999146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,13 +847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.078831434249878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.669357776641846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.687736034393311</c:v>
+                  <c:v>9.33722281455994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.41779565811157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.38682341575623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,13 +903,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.361236095428467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.782018184661865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8964524269104</c:v>
+                  <c:v>13.4630389213562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8444879055023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.6213479042053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,13 +959,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.947299480438232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.294318437576294</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.053436756134033</c:v>
+                  <c:v>32.1856458187103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.7153508663177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.424408197403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,13 +1105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.006075143814086914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02311062812805176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04503226280212402</c:v>
+                  <c:v>0.0200200080871582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0701963901519775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.140502452850342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,13 +1161,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00580906867980957</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03571963310241699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07622957229614258</c:v>
+                  <c:v>0.0190138816833496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0962533950805664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189426898956299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,13 +1217,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01027584075927734</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04131984710693359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08859515190124512</c:v>
+                  <c:v>0.0330278873443604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.137830018997192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.263137817382812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,13 +1273,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02141690254211426</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1000747680664062</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2089800834655762</c:v>
+                  <c:v>0.0693912506103516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318536758422852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.647831201553345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,16 +1816,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.002869606018066</v>
+        <v>5.5318922996521</v>
       </c>
       <c r="C2">
-        <v>3.33395791053772</v>
+        <v>8.99859046936035</v>
       </c>
       <c r="D2">
-        <v>4.173003673553467</v>
+        <v>13.0929651260376</v>
       </c>
       <c r="E2">
-        <v>7.574829816818237</v>
+        <v>26.4378969669342</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.658698320388794</v>
+        <v>5.14345622062683</v>
       </c>
       <c r="C3">
-        <v>2.521268367767334</v>
+        <v>8.75268220901489</v>
       </c>
       <c r="D3">
-        <v>3.717034816741943</v>
+        <v>11.7953827381134</v>
       </c>
       <c r="E3">
-        <v>7.215502738952637</v>
+        <v>25.1964299678802</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.479051351547241</v>
+        <v>4.75947666168213</v>
       </c>
       <c r="C4">
-        <v>2.515085458755493</v>
+        <v>8.5424599647522</v>
       </c>
       <c r="D4">
-        <v>3.53716778755188</v>
+        <v>11.3039703369141</v>
       </c>
       <c r="E4">
-        <v>7.222671747207642</v>
+        <v>24.9001808166504</v>
       </c>
     </row>
   </sheetData>
@@ -1895,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.003570795059204102</v>
+        <v>0.0114443302154541</v>
       </c>
       <c r="C2">
-        <v>0.005369663238525391</v>
+        <v>0.0181083679199219</v>
       </c>
       <c r="D2">
-        <v>0.01061892509460449</v>
+        <v>0.0315818786621094</v>
       </c>
       <c r="E2">
-        <v>0.01627802848815918</v>
+        <v>0.0515525341033936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01811099052429199</v>
+        <v>0.0516672134399414</v>
       </c>
       <c r="C3">
-        <v>0.02714896202087402</v>
+        <v>0.0896377563476562</v>
       </c>
       <c r="D3">
-        <v>0.04393935203552246</v>
+        <v>0.134850978851318</v>
       </c>
       <c r="E3">
-        <v>0.07621192932128906</v>
+        <v>0.262027263641357</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03898906707763672</v>
+        <v>0.10820746421814</v>
       </c>
       <c r="C4">
-        <v>0.05526518821716309</v>
+        <v>0.184207201004028</v>
       </c>
       <c r="D4">
-        <v>0.08069086074829102</v>
+        <v>0.264951705932617</v>
       </c>
       <c r="E4">
-        <v>0.1458353996276855</v>
+        <v>0.523222923278809</v>
       </c>
     </row>
   </sheetData>
@@ -1974,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.376485824584961</v>
+        <v>6.98036003112793</v>
       </c>
       <c r="C2">
-        <v>4.078831434249878</v>
+        <v>9.33722281455994</v>
       </c>
       <c r="D2">
-        <v>4.361236095428467</v>
+        <v>13.4630389213562</v>
       </c>
       <c r="E2">
-        <v>9.947299480438232</v>
+        <v>32.1856458187103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1991,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.024414539337158</v>
+        <v>6.51122999191284</v>
       </c>
       <c r="C3">
-        <v>2.669357776641846</v>
+        <v>9.41779565811157</v>
       </c>
       <c r="D3">
-        <v>3.782018184661865</v>
+        <v>11.8444879055023</v>
       </c>
       <c r="E3">
-        <v>9.294318437576294</v>
+        <v>30.7153508663177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2008,16 +2008,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.105715036392212</v>
+        <v>6.26917695999146</v>
       </c>
       <c r="C4">
-        <v>2.687736034393311</v>
+        <v>9.38682341575623</v>
       </c>
       <c r="D4">
-        <v>3.8964524269104</v>
+        <v>11.6213479042053</v>
       </c>
       <c r="E4">
-        <v>9.053436756134033</v>
+        <v>30.424408197403</v>
       </c>
     </row>
   </sheetData>
@@ -2053,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.006075143814086914</v>
+        <v>0.0200200080871582</v>
       </c>
       <c r="C2">
-        <v>0.00580906867980957</v>
+        <v>0.0190138816833496</v>
       </c>
       <c r="D2">
-        <v>0.01027584075927734</v>
+        <v>0.0330278873443604</v>
       </c>
       <c r="E2">
-        <v>0.02141690254211426</v>
+        <v>0.0693912506103516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.02311062812805176</v>
+        <v>0.0701963901519775</v>
       </c>
       <c r="C3">
-        <v>0.03571963310241699</v>
+        <v>0.0962533950805664</v>
       </c>
       <c r="D3">
-        <v>0.04131984710693359</v>
+        <v>0.137830018997192</v>
       </c>
       <c r="E3">
-        <v>0.1000747680664062</v>
+        <v>0.318536758422852</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.04503226280212402</v>
+        <v>0.140502452850342</v>
       </c>
       <c r="C4">
-        <v>0.07622957229614258</v>
+        <v>0.189426898956299</v>
       </c>
       <c r="D4">
-        <v>0.08859515190124512</v>
+        <v>0.263137817382812</v>
       </c>
       <c r="E4">
-        <v>0.2089800834655762</v>
+        <v>0.647831201553345</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -163,13 +163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.5318922996521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.14345622062683</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.75947666168213</c:v>
+                  <c:v>3.91379976272583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.85886096954346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.33801937103271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,13 +219,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.99859046936035</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.75268220901489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5424599647522</c:v>
+                  <c:v>10.0566110610962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.1032688617706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9569008350372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,13 +275,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.0929651260376</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.7953827381134</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.3039703369141</c:v>
+                  <c:v>37.4338536262512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0964765548706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5621743202209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,13 +331,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>26.4378969669342</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.1964299678802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.9001808166504</c:v>
+                  <c:v>26.7869865894318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.8908820152283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0503716468811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,13 +477,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0114443302154541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0516672134399414</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10820746421814</c:v>
+                  <c:v>0.0137507915496826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0424380302429199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.148709774017334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,13 +533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0181083679199219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0896377563476562</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.184207201004028</c:v>
+                  <c:v>0.0239286422729492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183685064315796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.261905908584595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,13 +589,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0315818786621094</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.134850978851318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.264951705932617</c:v>
+                  <c:v>0.0237033367156982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.507920026779175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00874161720276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,13 +645,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0515525341033936</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.262027263641357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.523222923278809</c:v>
+                  <c:v>0.0644373893737793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.371496200561523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.572787761688232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,13 +791,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.98036003112793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.51122999191284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.26917695999146</c:v>
+                  <c:v>5.16927337646484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.34160828590393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.41352081298828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,13 +847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.33722281455994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.41779565811157</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.38682341575623</c:v>
+                  <c:v>13.1004536151886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.81340003013611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.87141728401184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,13 +903,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.4630389213562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.8444879055023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.6213479042053</c:v>
+                  <c:v>33.9798820018768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5464525222778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1469638347626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,13 +959,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32.1856458187103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.7153508663177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.424408197403</c:v>
+                  <c:v>35.1661126613617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0906465053558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.6342675685883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,13 +1105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0200200080871582</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0701963901519775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.140502452850342</c:v>
+                  <c:v>0.00955796241760254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.076059103012085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0789287090301514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,13 +1161,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0190138816833496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0962533950805664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.189426898956299</c:v>
+                  <c:v>0.0363798141479492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.218955039978027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.198550224304199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,13 +1217,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0330278873443604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.137830018997192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.263137817382812</c:v>
+                  <c:v>0.0748512744903564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.266915798187256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677719831466675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,13 +1273,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0693912506103516</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.318536758422852</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.647831201553345</c:v>
+                  <c:v>0.0672605037689209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.418965339660645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.666345119476318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,16 +1816,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.5318922996521</v>
+        <v>3.91379976272583</v>
       </c>
       <c r="C2">
-        <v>8.99859046936035</v>
+        <v>10.0566110610962</v>
       </c>
       <c r="D2">
-        <v>13.0929651260376</v>
+        <v>37.4338536262512</v>
       </c>
       <c r="E2">
-        <v>26.4378969669342</v>
+        <v>26.7869865894318</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.14345622062683</v>
+        <v>4.85886096954346</v>
       </c>
       <c r="C3">
-        <v>8.75268220901489</v>
+        <v>13.1032688617706</v>
       </c>
       <c r="D3">
-        <v>11.7953827381134</v>
+        <v>12.0964765548706</v>
       </c>
       <c r="E3">
-        <v>25.1964299678802</v>
+        <v>32.8908820152283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.75947666168213</v>
+        <v>5.33801937103271</v>
       </c>
       <c r="C4">
-        <v>8.5424599647522</v>
+        <v>11.9569008350372</v>
       </c>
       <c r="D4">
-        <v>11.3039703369141</v>
+        <v>11.5621743202209</v>
       </c>
       <c r="E4">
-        <v>24.9001808166504</v>
+        <v>28.0503716468811</v>
       </c>
     </row>
   </sheetData>
@@ -1895,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0114443302154541</v>
+        <v>0.0137507915496826</v>
       </c>
       <c r="C2">
-        <v>0.0181083679199219</v>
+        <v>0.0239286422729492</v>
       </c>
       <c r="D2">
-        <v>0.0315818786621094</v>
+        <v>0.0237033367156982</v>
       </c>
       <c r="E2">
-        <v>0.0515525341033936</v>
+        <v>0.0644373893737793</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0516672134399414</v>
+        <v>0.0424380302429199</v>
       </c>
       <c r="C3">
-        <v>0.0896377563476562</v>
+        <v>0.183685064315796</v>
       </c>
       <c r="D3">
-        <v>0.134850978851318</v>
+        <v>0.507920026779175</v>
       </c>
       <c r="E3">
-        <v>0.262027263641357</v>
+        <v>0.371496200561523</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.10820746421814</v>
+        <v>0.148709774017334</v>
       </c>
       <c r="C4">
-        <v>0.184207201004028</v>
+        <v>0.261905908584595</v>
       </c>
       <c r="D4">
-        <v>0.264951705932617</v>
+        <v>1.00874161720276</v>
       </c>
       <c r="E4">
-        <v>0.523222923278809</v>
+        <v>0.572787761688232</v>
       </c>
     </row>
   </sheetData>
@@ -1974,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.98036003112793</v>
+        <v>5.16927337646484</v>
       </c>
       <c r="C2">
-        <v>9.33722281455994</v>
+        <v>13.1004536151886</v>
       </c>
       <c r="D2">
-        <v>13.4630389213562</v>
+        <v>33.9798820018768</v>
       </c>
       <c r="E2">
-        <v>32.1856458187103</v>
+        <v>35.1661126613617</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1991,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.51122999191284</v>
+        <v>4.34160828590393</v>
       </c>
       <c r="C3">
-        <v>9.41779565811157</v>
+        <v>9.81340003013611</v>
       </c>
       <c r="D3">
-        <v>11.8444879055023</v>
+        <v>11.5464525222778</v>
       </c>
       <c r="E3">
-        <v>30.7153508663177</v>
+        <v>32.0906465053558</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2008,16 +2008,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.26917695999146</v>
+        <v>4.41352081298828</v>
       </c>
       <c r="C4">
-        <v>9.38682341575623</v>
+        <v>9.87141728401184</v>
       </c>
       <c r="D4">
-        <v>11.6213479042053</v>
+        <v>13.1469638347626</v>
       </c>
       <c r="E4">
-        <v>30.424408197403</v>
+        <v>33.6342675685883</v>
       </c>
     </row>
   </sheetData>
@@ -2053,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0200200080871582</v>
+        <v>0.00955796241760254</v>
       </c>
       <c r="C2">
-        <v>0.0190138816833496</v>
+        <v>0.0363798141479492</v>
       </c>
       <c r="D2">
-        <v>0.0330278873443604</v>
+        <v>0.0748512744903564</v>
       </c>
       <c r="E2">
-        <v>0.0693912506103516</v>
+        <v>0.0672605037689209</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0701963901519775</v>
+        <v>0.076059103012085</v>
       </c>
       <c r="C3">
-        <v>0.0962533950805664</v>
+        <v>0.218955039978027</v>
       </c>
       <c r="D3">
-        <v>0.137830018997192</v>
+        <v>0.266915798187256</v>
       </c>
       <c r="E3">
-        <v>0.318536758422852</v>
+        <v>0.418965339660645</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.140502452850342</v>
+        <v>0.0789287090301514</v>
       </c>
       <c r="C4">
-        <v>0.189426898956299</v>
+        <v>0.198550224304199</v>
       </c>
       <c r="D4">
-        <v>0.263137817382812</v>
+        <v>0.677719831466675</v>
       </c>
       <c r="E4">
-        <v>0.647831201553345</v>
+        <v>0.666345119476318</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -163,13 +163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.91379976272583</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.85886096954346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.33801937103271</c:v>
+                  <c:v>3.01210618019104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.434366226196289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8112952709198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,13 +219,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.0566110610962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.1032688617706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.9569008350372</c:v>
+                  <c:v>8.218573331832886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.627395868301392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.462136507034302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,13 +275,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>37.4338536262512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.0964765548706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.5621743202209</c:v>
+                  <c:v>30.2668559551239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.583643674850464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.960646629333496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,13 +331,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>26.7869865894318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.8908820152283</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.0503716468811</c:v>
+                  <c:v>16.37676239013672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.59150910377502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2658908367157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,13 +477,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0137507915496826</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0424380302429199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.148709774017334</c:v>
+                  <c:v>0.003217697143554688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03773760795593262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05509591102600098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,13 +533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0239286422729492</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.183685064315796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.261905908584595</c:v>
+                  <c:v>0.03342700004577637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1283614635467529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2053275108337402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,13 +589,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0237033367156982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.507920026779175</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.00874161720276</c:v>
+                  <c:v>0.009747982025146484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08338522911071777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036634683609009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,13 +645,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0644373893737793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.371496200561523</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.572787761688232</c:v>
+                  <c:v>0.05376243591308594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1751737594604492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3402791023254395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,13 +791,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.16927337646484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.34160828590393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.41352081298828</c:v>
+                  <c:v>3.304884672164917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.268470764160156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.309374094009399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,13 +847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.1004536151886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.81340003013611</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.87141728401184</c:v>
+                  <c:v>9.187237977981567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.718277454376221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.490331888198853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,13 +903,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.9798820018768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.5464525222778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.1469638347626</c:v>
+                  <c:v>28.23240756988525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34145188331604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.530720233917236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,13 +959,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35.1661126613617</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.0906465053558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.6342675685883</c:v>
+                  <c:v>18.13662934303284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.74696922302246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.49033784866333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,13 +1105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.00955796241760254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.076059103012085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0789287090301514</c:v>
+                  <c:v>0.01489019393920898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03461980819702148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04453277587890625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,13 +1161,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0363798141479492</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.218955039978027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.198550224304199</c:v>
+                  <c:v>0.06313729286193848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09211945533752441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2454454898834229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,13 +1217,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0748512744903564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.266915798187256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.677719831466675</c:v>
+                  <c:v>0.01253008842468262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05383086204528809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025080680847168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,13 +1273,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0672605037689209</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.418965339660645</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.666345119476318</c:v>
+                  <c:v>0.03813982009887695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1019866466522217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4046390056610107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,16 +1816,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.91379976272583</v>
+        <v>3.01210618019104</v>
       </c>
       <c r="C2">
-        <v>10.0566110610962</v>
+        <v>8.218573331832886</v>
       </c>
       <c r="D2">
-        <v>37.4338536262512</v>
+        <v>30.2668559551239</v>
       </c>
       <c r="E2">
-        <v>26.7869865894318</v>
+        <v>16.37676239013672</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.85886096954346</v>
+        <v>2.434366226196289</v>
       </c>
       <c r="C3">
-        <v>13.1032688617706</v>
+        <v>7.627395868301392</v>
       </c>
       <c r="D3">
-        <v>12.0964765548706</v>
+        <v>7.583643674850464</v>
       </c>
       <c r="E3">
-        <v>32.8908820152283</v>
+        <v>15.59150910377502</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.33801937103271</v>
+        <v>2.8112952709198</v>
       </c>
       <c r="C4">
-        <v>11.9569008350372</v>
+        <v>8.462136507034302</v>
       </c>
       <c r="D4">
-        <v>11.5621743202209</v>
+        <v>6.960646629333496</v>
       </c>
       <c r="E4">
-        <v>28.0503716468811</v>
+        <v>15.2658908367157</v>
       </c>
     </row>
   </sheetData>
@@ -1895,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0137507915496826</v>
+        <v>0.003217697143554688</v>
       </c>
       <c r="C2">
-        <v>0.0239286422729492</v>
+        <v>0.03342700004577637</v>
       </c>
       <c r="D2">
-        <v>0.0237033367156982</v>
+        <v>0.009747982025146484</v>
       </c>
       <c r="E2">
-        <v>0.0644373893737793</v>
+        <v>0.05376243591308594</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0424380302429199</v>
+        <v>0.03773760795593262</v>
       </c>
       <c r="C3">
-        <v>0.183685064315796</v>
+        <v>0.1283614635467529</v>
       </c>
       <c r="D3">
-        <v>0.507920026779175</v>
+        <v>0.08338522911071777</v>
       </c>
       <c r="E3">
-        <v>0.371496200561523</v>
+        <v>0.1751737594604492</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.148709774017334</v>
+        <v>0.05509591102600098</v>
       </c>
       <c r="C4">
-        <v>0.261905908584595</v>
+        <v>0.2053275108337402</v>
       </c>
       <c r="D4">
-        <v>1.00874161720276</v>
+        <v>1.036634683609009</v>
       </c>
       <c r="E4">
-        <v>0.572787761688232</v>
+        <v>0.3402791023254395</v>
       </c>
     </row>
   </sheetData>
@@ -1974,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.16927337646484</v>
+        <v>3.304884672164917</v>
       </c>
       <c r="C2">
-        <v>13.1004536151886</v>
+        <v>9.187237977981567</v>
       </c>
       <c r="D2">
-        <v>33.9798820018768</v>
+        <v>28.23240756988525</v>
       </c>
       <c r="E2">
-        <v>35.1661126613617</v>
+        <v>18.13662934303284</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1991,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.34160828590393</v>
+        <v>3.268470764160156</v>
       </c>
       <c r="C3">
-        <v>9.81340003013611</v>
+        <v>8.718277454376221</v>
       </c>
       <c r="D3">
-        <v>11.5464525222778</v>
+        <v>7.34145188331604</v>
       </c>
       <c r="E3">
-        <v>32.0906465053558</v>
+        <v>17.74696922302246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2008,16 +2008,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.41352081298828</v>
+        <v>3.309374094009399</v>
       </c>
       <c r="C4">
-        <v>9.87141728401184</v>
+        <v>8.490331888198853</v>
       </c>
       <c r="D4">
-        <v>13.1469638347626</v>
+        <v>6.530720233917236</v>
       </c>
       <c r="E4">
-        <v>33.6342675685883</v>
+        <v>17.49033784866333</v>
       </c>
     </row>
   </sheetData>
@@ -2053,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00955796241760254</v>
+        <v>0.01489019393920898</v>
       </c>
       <c r="C2">
-        <v>0.0363798141479492</v>
+        <v>0.06313729286193848</v>
       </c>
       <c r="D2">
-        <v>0.0748512744903564</v>
+        <v>0.01253008842468262</v>
       </c>
       <c r="E2">
-        <v>0.0672605037689209</v>
+        <v>0.03813982009887695</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.076059103012085</v>
+        <v>0.03461980819702148</v>
       </c>
       <c r="C3">
-        <v>0.218955039978027</v>
+        <v>0.09211945533752441</v>
       </c>
       <c r="D3">
-        <v>0.266915798187256</v>
+        <v>0.05383086204528809</v>
       </c>
       <c r="E3">
-        <v>0.418965339660645</v>
+        <v>0.1019866466522217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0789287090301514</v>
+        <v>0.04453277587890625</v>
       </c>
       <c r="C4">
-        <v>0.198550224304199</v>
+        <v>0.2454454898834229</v>
       </c>
       <c r="D4">
-        <v>0.677719831466675</v>
+        <v>1.025080680847168</v>
       </c>
       <c r="E4">
-        <v>0.666345119476318</v>
+        <v>0.4046390056610107</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -140,10 +140,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -158,18 +158,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.01210618019104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.434366226196289</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8112952709198</c:v>
+              <c:f>'hget Pipeline size'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.070380926132202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.355520009994507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.294678926467896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -196,10 +196,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -214,18 +214,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.218573331832886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.627395868301392</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.462136507034302</c:v>
+              <c:f>'hget Pipeline size'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.138366937637329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.183824777603149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.154033660888672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,10 +252,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -270,18 +270,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>30.2668559551239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.583643674850464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.960646629333496</c:v>
+              <c:f>'hget Pipeline size'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.44424414634705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.18786263465881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.222530364990234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,10 +308,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -326,18 +326,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.37676239013672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.59150910377502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.2658908367157</c:v>
+              <c:f>'hget Pipeline size'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.1790874004364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.02432227134705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.07446694374084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,10 +454,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -472,18 +472,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.003217697143554688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03773760795593262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05509591102600098</c:v>
+              <c:f>'hget Hashmap size'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.008607387542724609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03314304351806641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05385494232177734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,10 +510,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -528,18 +528,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.03342700004577637</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1283614635467529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2053275108337402</c:v>
+              <c:f>'hget Hashmap size'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.06150317192077637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1265943050384521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2440955638885498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,10 +566,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -584,18 +584,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.009747982025146484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08338522911071777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.036634683609009</c:v>
+              <c:f>'hget Hashmap size'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10487961769104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5208077430725098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.035107851028442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,10 +622,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -640,18 +640,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.05376243591308594</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1751737594604492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3402791023254395</c:v>
+              <c:f>'hget Hashmap size'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0491185188293457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1632773876190186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30892014503479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,10 +768,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -786,18 +786,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.304884672164917</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.268470764160156</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.309374094009399</c:v>
+              <c:f>'hset Pipeline size'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.650970220565796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.645564317703247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.081843852996826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,10 +824,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -842,18 +842,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.187237977981567</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.718277454376221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.490331888198853</c:v>
+              <c:f>'hset Pipeline size'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.420398950576782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.898625373840332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.022691488265991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,10 +880,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -898,18 +898,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>28.23240756988525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.34145188331604</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.530720233917236</c:v>
+              <c:f>'hset Pipeline size'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.50362229347229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.789697647094727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.157880306243896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,10 +936,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -954,18 +954,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>18.13662934303284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.74696922302246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.49033784866333</c:v>
+              <c:f>'hset Pipeline size'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.91570925712585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.78483247756958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.14894962310791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,10 +1082,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1100,18 +1100,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.01489019393920898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03461980819702148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04453277587890625</c:v>
+              <c:f>'hset Hashmap size'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00569462776184082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03818368911743164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04758524894714355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,10 +1138,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1156,18 +1156,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.06313729286193848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09211945533752441</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2454454898834229</c:v>
+              <c:f>'hset Hashmap size'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0390620231628418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09438014030456543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1689491271972656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,10 +1194,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1212,18 +1212,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.01253008842468262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05383086204528809</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.025080680847168</c:v>
+              <c:f>'hset Hashmap size'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0187680721282959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4044837951660156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5310370922088623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,10 +1250,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1268,18 +1268,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.03813982009887695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1019866466522217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4046390056610107</c:v>
+              <c:f>'hset Hashmap size'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.03559994697570801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.204355001449585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3760607242584229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,16 +1816,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.01210618019104</v>
+        <v>3.070380926132202</v>
       </c>
       <c r="C2">
-        <v>8.218573331832886</v>
+        <v>7.138366937637329</v>
       </c>
       <c r="D2">
-        <v>30.2668559551239</v>
+        <v>30.44424414634705</v>
       </c>
       <c r="E2">
-        <v>16.37676239013672</v>
+        <v>15.1790874004364</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.434366226196289</v>
+        <v>2.355520009994507</v>
       </c>
       <c r="C3">
-        <v>7.627395868301392</v>
+        <v>7.183824777603149</v>
       </c>
       <c r="D3">
-        <v>7.583643674850464</v>
+        <v>10.18786263465881</v>
       </c>
       <c r="E3">
-        <v>15.59150910377502</v>
+        <v>14.02432227134705</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.8112952709198</v>
+        <v>2.294678926467896</v>
       </c>
       <c r="C4">
-        <v>8.462136507034302</v>
+        <v>7.154033660888672</v>
       </c>
       <c r="D4">
-        <v>6.960646629333496</v>
+        <v>6.222530364990234</v>
       </c>
       <c r="E4">
-        <v>15.2658908367157</v>
+        <v>15.07446694374084</v>
       </c>
     </row>
   </sheetData>
@@ -1895,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.003217697143554688</v>
+        <v>0.008607387542724609</v>
       </c>
       <c r="C2">
-        <v>0.03342700004577637</v>
+        <v>0.06150317192077637</v>
       </c>
       <c r="D2">
-        <v>0.009747982025146484</v>
+        <v>0.10487961769104</v>
       </c>
       <c r="E2">
-        <v>0.05376243591308594</v>
+        <v>0.0491185188293457</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03773760795593262</v>
+        <v>0.03314304351806641</v>
       </c>
       <c r="C3">
-        <v>0.1283614635467529</v>
+        <v>0.1265943050384521</v>
       </c>
       <c r="D3">
-        <v>0.08338522911071777</v>
+        <v>0.5208077430725098</v>
       </c>
       <c r="E3">
-        <v>0.1751737594604492</v>
+        <v>0.1632773876190186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.05509591102600098</v>
+        <v>0.05385494232177734</v>
       </c>
       <c r="C4">
-        <v>0.2053275108337402</v>
+        <v>0.2440955638885498</v>
       </c>
       <c r="D4">
-        <v>1.036634683609009</v>
+        <v>1.035107851028442</v>
       </c>
       <c r="E4">
-        <v>0.3402791023254395</v>
+        <v>0.30892014503479</v>
       </c>
     </row>
   </sheetData>
@@ -1974,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.304884672164917</v>
+        <v>3.650970220565796</v>
       </c>
       <c r="C2">
-        <v>9.187237977981567</v>
+        <v>9.420398950576782</v>
       </c>
       <c r="D2">
-        <v>28.23240756988525</v>
+        <v>24.50362229347229</v>
       </c>
       <c r="E2">
-        <v>18.13662934303284</v>
+        <v>17.91570925712585</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1991,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.268470764160156</v>
+        <v>2.645564317703247</v>
       </c>
       <c r="C3">
-        <v>8.718277454376221</v>
+        <v>7.898625373840332</v>
       </c>
       <c r="D3">
-        <v>7.34145188331604</v>
+        <v>9.789697647094727</v>
       </c>
       <c r="E3">
-        <v>17.74696922302246</v>
+        <v>16.78483247756958</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2008,16 +2008,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.309374094009399</v>
+        <v>3.081843852996826</v>
       </c>
       <c r="C4">
-        <v>8.490331888198853</v>
+        <v>8.022691488265991</v>
       </c>
       <c r="D4">
-        <v>6.530720233917236</v>
+        <v>6.157880306243896</v>
       </c>
       <c r="E4">
-        <v>17.49033784866333</v>
+        <v>17.14894962310791</v>
       </c>
     </row>
   </sheetData>
@@ -2053,16 +2053,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.01489019393920898</v>
+        <v>0.00569462776184082</v>
       </c>
       <c r="C2">
-        <v>0.06313729286193848</v>
+        <v>0.0390620231628418</v>
       </c>
       <c r="D2">
-        <v>0.01253008842468262</v>
+        <v>0.0187680721282959</v>
       </c>
       <c r="E2">
-        <v>0.03813982009887695</v>
+        <v>0.03559994697570801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03461980819702148</v>
+        <v>0.03818368911743164</v>
       </c>
       <c r="C3">
-        <v>0.09211945533752441</v>
+        <v>0.09438014030456543</v>
       </c>
       <c r="D3">
-        <v>0.05383086204528809</v>
+        <v>0.4044837951660156</v>
       </c>
       <c r="E3">
-        <v>0.1019866466522217</v>
+        <v>0.204355001449585</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.04453277587890625</v>
+        <v>0.04758524894714355</v>
       </c>
       <c r="C4">
-        <v>0.2454454898834229</v>
+        <v>0.1689491271972656</v>
       </c>
       <c r="D4">
-        <v>1.025080680847168</v>
+        <v>0.5310370922088623</v>
       </c>
       <c r="E4">
-        <v>0.4046390056610107</v>
+        <v>0.3760607242584229</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli pipeline benchmark.xlsx
+++ b/Redis cli pipeline benchmark.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>credis_bench</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -140,10 +152,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -152,24 +164,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.070380926132202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.355520009994507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.294678926467896</c:v>
+              <c:f>'hget Pipeline size'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.826209306716919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.810004234313965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.303087472915649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.249349355697632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.921991109848022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.078839540481567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.269154787063599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -196,10 +232,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -208,24 +244,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.138366937637329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.183824777603149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.154033660888672</c:v>
+              <c:f>'hget Pipeline size'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.765588998794556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.753246545791626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.64115047454834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.478561639785767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.596394062042236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.387776851654053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.123377323150635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,10 +312,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -264,24 +324,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>30.44424414634705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.18786263465881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.222530364990234</c:v>
+              <c:f>'hget Pipeline size'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.83404803276062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.133246183395386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.028422594070435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.786698579788208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.290036916732788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.851486206054688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13155722618103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,10 +392,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -320,24 +404,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Pipeline size'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15.1790874004364</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.02432227134705</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.07446694374084</c:v>
+              <c:f>'hget Pipeline size'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.4440393447876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.32762908935547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.45697665214539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75105810165405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.67269325256348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.17261958122253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2404637336731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,10 +562,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -466,24 +574,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.008607387542724609</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03314304351806641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05385494232177734</c:v>
+              <c:f>'hget Hashmap size'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.003714561462402344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03172063827514648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05319070816040039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1365442276000977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2536506652832031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3732221126556396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4745705127716064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,10 +642,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -522,24 +654,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06150317192077637</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1265943050384521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2440955638885498</c:v>
+              <c:f>'hget Hashmap size'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.09395503997802734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1100924015045166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08369755744934082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.401486873626709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4722936153411865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9095489978790283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.289959669113159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,10 +722,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -578,24 +734,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.10487961769104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5208077430725098</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.035107851028442</c:v>
+              <c:f>'hget Hashmap size'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01049184799194336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07511401176452637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.174933910369873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3413641452789307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.398867130279541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7889347076416016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24260950088501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,10 +802,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hget Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -634,24 +814,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hget Hashmap size'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0491185188293457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1632773876190186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30892014503479</c:v>
+              <c:f>'hget Hashmap size'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.06119894981384277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1758835315704346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3226199150085449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8481526374816895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.210108280181885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.70162558555603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.411384344100952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,10 +972,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -780,24 +984,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.650970220565796</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.645564317703247</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.081843852996826</c:v>
+              <c:f>'hset Pipeline size'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.129147291183472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.402657508850098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.663260221481323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.860551834106445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.67522406578064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.315201282501221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.607917308807373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,10 +1052,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -836,24 +1064,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.420398950576782</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.898625373840332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.022691488265991</c:v>
+              <c:f>'hset Pipeline size'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.828658103942871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.671667098999023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.524224519729614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.987456798553467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.183143854141235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.664060831069946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.422430276870728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,10 +1132,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -892,24 +1144,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>24.50362229347229</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.789697647094727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.157880306243896</c:v>
+              <c:f>'hset Pipeline size'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.548914670944214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.474961519241333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.536856174468994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.275813579559326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.824999809265137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.030555009841919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.769092798233032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,10 +1212,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Pipeline size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -948,24 +1224,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Pipeline size'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.91570925712585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.78483247756958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.14894962310791</c:v>
+              <c:f>'hset Pipeline size'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.82425999641418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.51947617530823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.36031579971313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.43769550323486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.04732799530029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.23782825469971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.67837381362915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,10 +1382,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1094,24 +1394,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.00569462776184082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03818368911743164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04758524894714355</c:v>
+              <c:f>'hset Hashmap size'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.008154869079589844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04530024528503418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05105686187744141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1935949325561523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2681195735931396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3848278522491455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.572340726852417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,10 +1462,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1150,24 +1474,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0390620231628418</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09438014030456543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1689491271972656</c:v>
+              <c:f>'hset Hashmap size'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.07160210609436035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0781857967376709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09406876564025879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4124445915222168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6777081489562988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.341844797134399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.362894296646118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,10 +1542,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1206,24 +1554,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0187680721282959</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4044837951660156</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5310370922088623</c:v>
+              <c:f>'hset Hashmap size'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01865220069885254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1087353229522705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1553099155426025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.339907169342041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4153385162353516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.03316855430603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.468125104904175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,10 +1622,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'hset Hashmap size'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1262,24 +1634,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hset Hashmap size'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03559994697570801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.204355001449585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3760607242584229</c:v>
+              <c:f>'hset Hashmap size'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0419316291809082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2843291759490967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3785767555236816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9232954978942871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.940107822418213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.772718906402588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.689055442810059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1816,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.070380926132202</v>
+        <v>2.826209306716919</v>
       </c>
       <c r="C2">
-        <v>7.138366937637329</v>
+        <v>5.765588998794556</v>
       </c>
       <c r="D2">
-        <v>30.44424414634705</v>
+        <v>5.83404803276062</v>
       </c>
       <c r="E2">
-        <v>15.1790874004364</v>
+        <v>10.4440393447876</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.355520009994507</v>
+        <v>1.810004234313965</v>
       </c>
       <c r="C3">
-        <v>7.183824777603149</v>
+        <v>5.753246545791626</v>
       </c>
       <c r="D3">
-        <v>10.18786263465881</v>
+        <v>5.133246183395386</v>
       </c>
       <c r="E3">
-        <v>14.02432227134705</v>
+        <v>11.32762908935547</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +2246,84 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.294678926467896</v>
+        <v>2.303087472915649</v>
       </c>
       <c r="C4">
-        <v>7.154033660888672</v>
+        <v>5.64115047454834</v>
       </c>
       <c r="D4">
-        <v>6.222530364990234</v>
+        <v>5.028422594070435</v>
       </c>
       <c r="E4">
-        <v>15.07446694374084</v>
+        <v>12.45697665214539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2.249349355697632</v>
+      </c>
+      <c r="C5">
+        <v>5.478561639785767</v>
+      </c>
+      <c r="D5">
+        <v>4.786698579788208</v>
+      </c>
+      <c r="E5">
+        <v>11.75105810165405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.921991109848022</v>
+      </c>
+      <c r="C6">
+        <v>5.596394062042236</v>
+      </c>
+      <c r="D6">
+        <v>5.290036916732788</v>
+      </c>
+      <c r="E6">
+        <v>10.67269325256348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2.078839540481567</v>
+      </c>
+      <c r="C7">
+        <v>5.387776851654053</v>
+      </c>
+      <c r="D7">
+        <v>5.851486206054688</v>
+      </c>
+      <c r="E7">
+        <v>10.17261958122253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.269154787063599</v>
+      </c>
+      <c r="C8">
+        <v>5.123377323150635</v>
+      </c>
+      <c r="D8">
+        <v>5.13155722618103</v>
+      </c>
+      <c r="E8">
+        <v>12.2404637336731</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1895,16 +2359,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.008607387542724609</v>
+        <v>0.003714561462402344</v>
       </c>
       <c r="C2">
-        <v>0.06150317192077637</v>
+        <v>0.09395503997802734</v>
       </c>
       <c r="D2">
-        <v>0.10487961769104</v>
+        <v>0.01049184799194336</v>
       </c>
       <c r="E2">
-        <v>0.0491185188293457</v>
+        <v>0.06119894981384277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1912,16 +2376,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03314304351806641</v>
+        <v>0.03172063827514648</v>
       </c>
       <c r="C3">
-        <v>0.1265943050384521</v>
+        <v>0.1100924015045166</v>
       </c>
       <c r="D3">
-        <v>0.5208077430725098</v>
+        <v>0.07511401176452637</v>
       </c>
       <c r="E3">
-        <v>0.1632773876190186</v>
+        <v>0.1758835315704346</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1929,16 +2393,84 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.05385494232177734</v>
+        <v>0.05319070816040039</v>
       </c>
       <c r="C4">
-        <v>0.2440955638885498</v>
+        <v>0.08369755744934082</v>
       </c>
       <c r="D4">
-        <v>1.035107851028442</v>
+        <v>0.174933910369873</v>
       </c>
       <c r="E4">
-        <v>0.30892014503479</v>
+        <v>0.3226199150085449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.1365442276000977</v>
+      </c>
+      <c r="C5">
+        <v>0.401486873626709</v>
+      </c>
+      <c r="D5">
+        <v>0.3413641452789307</v>
+      </c>
+      <c r="E5">
+        <v>0.8481526374816895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.2536506652832031</v>
+      </c>
+      <c r="C6">
+        <v>0.4722936153411865</v>
+      </c>
+      <c r="D6">
+        <v>0.398867130279541</v>
+      </c>
+      <c r="E6">
+        <v>1.210108280181885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3732221126556396</v>
+      </c>
+      <c r="C7">
+        <v>0.9095489978790283</v>
+      </c>
+      <c r="D7">
+        <v>0.7889347076416016</v>
+      </c>
+      <c r="E7">
+        <v>1.70162558555603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.4745705127716064</v>
+      </c>
+      <c r="C8">
+        <v>1.289959669113159</v>
+      </c>
+      <c r="D8">
+        <v>1.24260950088501</v>
+      </c>
+      <c r="E8">
+        <v>2.411384344100952</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1974,16 +2506,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.650970220565796</v>
+        <v>3.129147291183472</v>
       </c>
       <c r="C2">
-        <v>9.420398950576782</v>
+        <v>7.828658103942871</v>
       </c>
       <c r="D2">
-        <v>24.50362229347229</v>
+        <v>6.548914670944214</v>
       </c>
       <c r="E2">
-        <v>17.91570925712585</v>
+        <v>16.82425999641418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1991,16 +2523,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.645564317703247</v>
+        <v>2.402657508850098</v>
       </c>
       <c r="C3">
-        <v>7.898625373840332</v>
+        <v>5.671667098999023</v>
       </c>
       <c r="D3">
-        <v>9.789697647094727</v>
+        <v>4.474961519241333</v>
       </c>
       <c r="E3">
-        <v>16.78483247756958</v>
+        <v>14.51947617530823</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2008,16 +2540,84 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.081843852996826</v>
+        <v>2.663260221481323</v>
       </c>
       <c r="C4">
-        <v>8.022691488265991</v>
+        <v>5.524224519729614</v>
       </c>
       <c r="D4">
-        <v>6.157880306243896</v>
+        <v>5.536856174468994</v>
       </c>
       <c r="E4">
-        <v>17.14894962310791</v>
+        <v>15.36031579971313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2.860551834106445</v>
+      </c>
+      <c r="C5">
+        <v>5.987456798553467</v>
+      </c>
+      <c r="D5">
+        <v>6.275813579559326</v>
+      </c>
+      <c r="E5">
+        <v>14.43769550323486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2.67522406578064</v>
+      </c>
+      <c r="C6">
+        <v>5.183143854141235</v>
+      </c>
+      <c r="D6">
+        <v>5.824999809265137</v>
+      </c>
+      <c r="E6">
+        <v>15.04732799530029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2.315201282501221</v>
+      </c>
+      <c r="C7">
+        <v>5.664060831069946</v>
+      </c>
+      <c r="D7">
+        <v>6.030555009841919</v>
+      </c>
+      <c r="E7">
+        <v>13.23782825469971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.607917308807373</v>
+      </c>
+      <c r="C8">
+        <v>5.422430276870728</v>
+      </c>
+      <c r="D8">
+        <v>5.769092798233032</v>
+      </c>
+      <c r="E8">
+        <v>15.67837381362915</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2628,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2053,16 +2653,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00569462776184082</v>
+        <v>0.008154869079589844</v>
       </c>
       <c r="C2">
-        <v>0.0390620231628418</v>
+        <v>0.07160210609436035</v>
       </c>
       <c r="D2">
-        <v>0.0187680721282959</v>
+        <v>0.01865220069885254</v>
       </c>
       <c r="E2">
-        <v>0.03559994697570801</v>
+        <v>0.0419316291809082</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2070,16 +2670,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03818368911743164</v>
+        <v>0.04530024528503418</v>
       </c>
       <c r="C3">
-        <v>0.09438014030456543</v>
+        <v>0.0781857967376709</v>
       </c>
       <c r="D3">
-        <v>0.4044837951660156</v>
+        <v>0.1087353229522705</v>
       </c>
       <c r="E3">
-        <v>0.204355001449585</v>
+        <v>0.2843291759490967</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2087,16 +2687,84 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.04758524894714355</v>
+        <v>0.05105686187744141</v>
       </c>
       <c r="C4">
-        <v>0.1689491271972656</v>
+        <v>0.09406876564025879</v>
       </c>
       <c r="D4">
-        <v>0.5310370922088623</v>
+        <v>0.1553099155426025</v>
       </c>
       <c r="E4">
-        <v>0.3760607242584229</v>
+        <v>0.3785767555236816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.1935949325561523</v>
+      </c>
+      <c r="C5">
+        <v>0.4124445915222168</v>
+      </c>
+      <c r="D5">
+        <v>0.339907169342041</v>
+      </c>
+      <c r="E5">
+        <v>0.9232954978942871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.2681195735931396</v>
+      </c>
+      <c r="C6">
+        <v>0.6777081489562988</v>
+      </c>
+      <c r="D6">
+        <v>0.4153385162353516</v>
+      </c>
+      <c r="E6">
+        <v>1.940107822418213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3848278522491455</v>
+      </c>
+      <c r="C7">
+        <v>1.341844797134399</v>
+      </c>
+      <c r="D7">
+        <v>1.03316855430603</v>
+      </c>
+      <c r="E7">
+        <v>2.772718906402588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.572340726852417</v>
+      </c>
+      <c r="C8">
+        <v>1.362894296646118</v>
+      </c>
+      <c r="D8">
+        <v>1.468125104904175</v>
+      </c>
+      <c r="E8">
+        <v>3.689055442810059</v>
       </c>
     </row>
   </sheetData>
